--- a/data/trans_orig/P43B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P43B-Estudios-trans_orig.xlsx
@@ -623,19 +623,19 @@
         <v>42678</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32145</v>
+        <v>31275</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58215</v>
+        <v>57119</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05130749332858589</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03864478371791435</v>
+        <v>0.0375991078361167</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06998686000863719</v>
+        <v>0.06866904392537357</v>
       </c>
     </row>
     <row r="5">
@@ -652,19 +652,19 @@
         <v>789122</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>773585</v>
+        <v>774681</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>799655</v>
+        <v>800525</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9486925066714141</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9300131399913628</v>
+        <v>0.9313309560746266</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9613552162820856</v>
+        <v>0.9624008921638834</v>
       </c>
     </row>
     <row r="6">
@@ -714,19 +714,19 @@
         <v>121216</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>101303</v>
+        <v>101286</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>143403</v>
+        <v>146413</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1884645239893649</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1575045066053015</v>
+        <v>0.1574780209006626</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2229597054068253</v>
+        <v>0.2276404526766367</v>
       </c>
     </row>
     <row r="8">
@@ -743,19 +743,19 @@
         <v>521962</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>499775</v>
+        <v>496765</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>541875</v>
+        <v>541892</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8115354760106351</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7770402945931748</v>
+        <v>0.7723595473233635</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8424954933946985</v>
+        <v>0.8425219790993373</v>
       </c>
     </row>
     <row r="9">
@@ -805,19 +805,19 @@
         <v>70141</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>57673</v>
+        <v>56996</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>83551</v>
+        <v>84681</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4426222325584024</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3639428664093469</v>
+        <v>0.3596674024296959</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.527242026093303</v>
+        <v>0.5343718765893578</v>
       </c>
     </row>
     <row r="11">
@@ -834,19 +834,19 @@
         <v>88327</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>74917</v>
+        <v>73787</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>100795</v>
+        <v>101472</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5573777674415976</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4727579739066965</v>
+        <v>0.4656281234106424</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6360571335906526</v>
+        <v>0.6403325975703041</v>
       </c>
     </row>
     <row r="12">
@@ -896,19 +896,19 @@
         <v>234035</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>204321</v>
+        <v>207385</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>263239</v>
+        <v>265608</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1432770291126587</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1250859592215765</v>
+        <v>0.1269614646151453</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1611555017932918</v>
+        <v>0.1626057204582452</v>
       </c>
     </row>
     <row r="14">
@@ -925,19 +925,19 @@
         <v>1399412</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1370208</v>
+        <v>1367839</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1429126</v>
+        <v>1426062</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8567229708873413</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8388444982067083</v>
+        <v>0.8373942795417547</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8749140407784235</v>
+        <v>0.8730385353848547</v>
       </c>
     </row>
     <row r="15">
@@ -1104,19 +1104,19 @@
         <v>25556</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16423</v>
+        <v>16280</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36611</v>
+        <v>37907</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0420436687977112</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0270189014178123</v>
+        <v>0.02678335127927443</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06023143277772542</v>
+        <v>0.06236294077291929</v>
       </c>
     </row>
     <row r="5">
@@ -1133,19 +1133,19 @@
         <v>582288</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>571233</v>
+        <v>569937</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>591421</v>
+        <v>591564</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9579563312022888</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9397685672222745</v>
+        <v>0.9376370592270806</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9729810985821877</v>
+        <v>0.9732166487207256</v>
       </c>
     </row>
     <row r="6">
@@ -1195,19 +1195,19 @@
         <v>82901</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>66351</v>
+        <v>66129</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>101173</v>
+        <v>100290</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09944277208303895</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0795907905407582</v>
+        <v>0.07932452973142684</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1213610418479172</v>
+        <v>0.1203021246093418</v>
       </c>
     </row>
     <row r="8">
@@ -1224,19 +1224,19 @@
         <v>750751</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>732479</v>
+        <v>733362</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>767301</v>
+        <v>767523</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.900557227916961</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8786389581520833</v>
+        <v>0.8796978753906585</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9204092094592419</v>
+        <v>0.9206754702685731</v>
       </c>
     </row>
     <row r="9">
@@ -1286,19 +1286,19 @@
         <v>97512</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>80929</v>
+        <v>81542</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>112163</v>
+        <v>113344</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4028585658874875</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3343474829701166</v>
+        <v>0.3368789260367387</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4633860666694843</v>
+        <v>0.4682656630061557</v>
       </c>
     </row>
     <row r="11">
@@ -1315,19 +1315,19 @@
         <v>144539</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>129888</v>
+        <v>128707</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>161122</v>
+        <v>160509</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5971414341125124</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5366139333305152</v>
+        <v>0.5317343369938443</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6656525170298834</v>
+        <v>0.6631210739632613</v>
       </c>
     </row>
     <row r="12">
@@ -1377,19 +1377,19 @@
         <v>205969</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>177416</v>
+        <v>178217</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>232924</v>
+        <v>235616</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1223423514703771</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1053821417485637</v>
+        <v>0.1058581325573979</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.138353174751356</v>
+        <v>0.1399524092173476</v>
       </c>
     </row>
     <row r="14">
@@ -1406,19 +1406,19 @@
         <v>1477578</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1450623</v>
+        <v>1447931</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1506131</v>
+        <v>1505330</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8776576485296229</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.861646825248644</v>
+        <v>0.860047590782653</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8946178582514361</v>
+        <v>0.8941418674426024</v>
       </c>
     </row>
     <row r="15">
@@ -1585,19 +1585,19 @@
         <v>20200</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13680</v>
+        <v>13873</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29221</v>
+        <v>30230</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.04686891174019601</v>
+        <v>0.04686891174019599</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03174192708963001</v>
+        <v>0.03218983842889053</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06780141817414519</v>
+        <v>0.07014175444590315</v>
       </c>
     </row>
     <row r="5">
@@ -1614,19 +1614,19 @@
         <v>410786</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>401765</v>
+        <v>400756</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>417306</v>
+        <v>417113</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9531310882598041</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9321985818258548</v>
+        <v>0.9298582455540968</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9682580729103699</v>
+        <v>0.9678101615711096</v>
       </c>
     </row>
     <row r="6">
@@ -1676,19 +1676,19 @@
         <v>115173</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>99817</v>
+        <v>99418</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>133804</v>
+        <v>132323</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1573753218219395</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1363925983514878</v>
+        <v>0.1358470095619893</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1828319987197461</v>
+        <v>0.1808088265172222</v>
       </c>
     </row>
     <row r="8">
@@ -1705,19 +1705,19 @@
         <v>616666</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>598035</v>
+        <v>599516</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>632022</v>
+        <v>632421</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8426246781780605</v>
+        <v>0.8426246781780606</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8171680012802541</v>
+        <v>0.8191911734827778</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8636074016485122</v>
+        <v>0.8641529904380107</v>
       </c>
     </row>
     <row r="9">
@@ -1767,19 +1767,19 @@
         <v>133590</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>119743</v>
+        <v>119113</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>147301</v>
+        <v>146792</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4466286242425739</v>
+        <v>0.4466286242425738</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4003351680828954</v>
+        <v>0.3982303895056905</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4924691287617382</v>
+        <v>0.4907665847084842</v>
       </c>
     </row>
     <row r="11">
@@ -1796,19 +1796,19 @@
         <v>165517</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>151806</v>
+        <v>152315</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>179364</v>
+        <v>179994</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5533713757574262</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5075308712382619</v>
+        <v>0.5092334152915158</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5996648319171044</v>
+        <v>0.6017696104943094</v>
       </c>
     </row>
     <row r="12">
@@ -1858,19 +1858,19 @@
         <v>268963</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>244994</v>
+        <v>243737</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>292360</v>
+        <v>294038</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1839777945909121</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1675824751754022</v>
+        <v>0.1667227039639748</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1999818807348369</v>
+        <v>0.2011297923387598</v>
       </c>
     </row>
     <row r="14">
@@ -1887,19 +1887,19 @@
         <v>1192969</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1169572</v>
+        <v>1167894</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1216938</v>
+        <v>1218195</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.816022205409088</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8000181192651633</v>
+        <v>0.7988702076612403</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.832417524824598</v>
+        <v>0.8332772960360253</v>
       </c>
     </row>
     <row r="15">
